--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R205_I2_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R205_I2_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2192" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3556" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -332,10 +344,10 @@
       <c r="I7">
         <f>((C7-C6)^2+(D7- D6)^2)^.5</f>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="2" t="s">
+      <c r="J7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L7" t="n">
@@ -379,28 +391,28 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="2">
+      <c r="A9" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B9" t="s" s="2">
+      <c r="B9" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C9" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s" s="2">
+      <c r="C9" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E9" t="s" s="2">
+      <c r="E9" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F9" t="s" s="2">
+      <c r="F9" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G9" t="s" s="2">
+      <c r="G9" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H9" t="s" s="2">
+      <c r="H9" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -425,28 +437,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="s" s="2">
+      <c r="B11" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C11" t="s" s="2">
+      <c r="C11" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D11" t="s" s="2">
+      <c r="D11" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E11" t="s" s="2">
+      <c r="E11" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F11" t="s" s="2">
+      <c r="F11" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G11" t="s" s="2">
+      <c r="G11" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H11" t="s" s="2">
+      <c r="H11" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I11" t="s" s="2">
+      <c r="I11" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -505,10 +517,10 @@
       <c r="I13">
         <f>((C13-C12)^2+(D13- D12)^2)^.5</f>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="2" t="s">
+      <c r="J13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L13" t="n">
@@ -552,28 +564,28 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="2">
+      <c r="A15" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B15" t="s" s="2">
+      <c r="B15" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C15" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s" s="2">
+      <c r="C15" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E15" t="s" s="2">
+      <c r="E15" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F15" t="s" s="2">
+      <c r="F15" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G15" t="s" s="2">
+      <c r="G15" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H15" t="s" s="2">
+      <c r="H15" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -598,28 +610,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="B17" t="s" s="2">
+      <c r="B17" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C17" t="s" s="2">
+      <c r="C17" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D17" t="s" s="2">
+      <c r="D17" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E17" t="s" s="2">
+      <c r="E17" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F17" t="s" s="2">
+      <c r="F17" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G17" t="s" s="2">
+      <c r="G17" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H17" t="s" s="2">
+      <c r="H17" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I17" t="s" s="2">
+      <c r="I17" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -678,10 +690,10 @@
       <c r="I19">
         <f>((C19-C18)^2+(D19- D18)^2)^.5</f>
       </c>
-      <c r="J19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="2" t="s">
+      <c r="J19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L19" t="n">
@@ -725,28 +737,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="2">
+      <c r="A21" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B21" t="s" s="2">
+      <c r="B21" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C21" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s" s="2">
+      <c r="C21" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E21" t="s" s="2">
+      <c r="E21" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F21" t="s" s="2">
+      <c r="F21" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G21" t="s" s="2">
+      <c r="G21" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H21" t="s" s="2">
+      <c r="H21" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -771,28 +783,28 @@
       </c>
     </row>
     <row r="23">
-      <c r="B23" t="s" s="2">
+      <c r="B23" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C23" t="s" s="2">
+      <c r="C23" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D23" t="s" s="2">
+      <c r="D23" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E23" t="s" s="2">
+      <c r="E23" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F23" t="s" s="2">
+      <c r="F23" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G23" t="s" s="2">
+      <c r="G23" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H23" t="s" s="2">
+      <c r="H23" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I23" t="s" s="2">
+      <c r="I23" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -909,10 +921,10 @@
       <c r="I27">
         <f>((C27-C26)^2+(D27- D26)^2)^.5</f>
       </c>
-      <c r="J27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K27" s="2" t="s">
+      <c r="J27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K27" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L27" t="n">
@@ -956,28 +968,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s" s="2">
+      <c r="A29" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B29" t="s" s="2">
+      <c r="B29" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C29" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D29" t="s" s="2">
+      <c r="C29" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E29" t="s" s="2">
+      <c r="E29" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F29" t="s" s="2">
+      <c r="F29" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G29" t="s" s="2">
+      <c r="G29" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H29" t="s" s="2">
+      <c r="H29" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1002,28 +1014,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="B31" t="s" s="2">
+      <c r="B31" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C31" t="s" s="2">
+      <c r="C31" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D31" t="s" s="2">
+      <c r="D31" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E31" t="s" s="2">
+      <c r="E31" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F31" t="s" s="2">
+      <c r="F31" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G31" t="s" s="2">
+      <c r="G31" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H31" t="s" s="2">
+      <c r="H31" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I31" t="s" s="2">
+      <c r="I31" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1111,10 +1123,10 @@
       <c r="I34">
         <f>((C34-C33)^2+(D34- D33)^2)^.5</f>
       </c>
-      <c r="J34" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K34" s="2" t="s">
+      <c r="J34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L34" t="n">
@@ -1158,28 +1170,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s" s="2">
+      <c r="A36" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B36" t="s" s="2">
+      <c r="B36" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C36" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D36" t="s" s="2">
+      <c r="C36" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E36" t="s" s="2">
+      <c r="E36" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F36" t="s" s="2">
+      <c r="F36" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G36" t="s" s="2">
+      <c r="G36" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H36" t="s" s="2">
+      <c r="H36" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1204,28 +1216,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="B38" t="s" s="2">
+      <c r="B38" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C38" t="s" s="2">
+      <c r="C38" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D38" t="s" s="2">
+      <c r="D38" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E38" t="s" s="2">
+      <c r="E38" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F38" t="s" s="2">
+      <c r="F38" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G38" t="s" s="2">
+      <c r="G38" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H38" t="s" s="2">
+      <c r="H38" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I38" t="s" s="2">
+      <c r="I38" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1313,10 +1325,10 @@
       <c r="I41">
         <f>((C41-C40)^2+(D41- D40)^2)^.5</f>
       </c>
-      <c r="J41" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K41" s="2" t="s">
+      <c r="J41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K41" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L41" t="n">
@@ -1360,28 +1372,28 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s" s="2">
+      <c r="A43" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B43" t="s" s="2">
+      <c r="B43" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C43" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D43" t="s" s="2">
+      <c r="C43" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D43" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E43" t="s" s="2">
+      <c r="E43" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F43" t="s" s="2">
+      <c r="F43" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G43" t="s" s="2">
+      <c r="G43" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H43" t="s" s="2">
+      <c r="H43" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1406,28 +1418,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="B45" t="s" s="2">
+      <c r="B45" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C45" t="s" s="2">
+      <c r="C45" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D45" t="s" s="2">
+      <c r="D45" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E45" t="s" s="2">
+      <c r="E45" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F45" t="s" s="2">
+      <c r="F45" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G45" t="s" s="2">
+      <c r="G45" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H45" t="s" s="2">
+      <c r="H45" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I45" t="s" s="2">
+      <c r="I45" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1486,10 +1498,10 @@
       <c r="I47">
         <f>((C47-C46)^2+(D47- D46)^2)^.5</f>
       </c>
-      <c r="J47" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K47" s="2" t="s">
+      <c r="J47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K47" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L47" t="n">
@@ -1533,28 +1545,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s" s="2">
+      <c r="A49" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B49" t="s" s="2">
+      <c r="B49" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C49" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D49" t="s" s="2">
+      <c r="C49" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D49" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E49" t="s" s="2">
+      <c r="E49" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F49" t="s" s="2">
+      <c r="F49" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G49" t="s" s="2">
+      <c r="G49" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H49" t="s" s="2">
+      <c r="H49" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1579,28 +1591,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="B51" t="s" s="2">
+      <c r="B51" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C51" t="s" s="2">
+      <c r="C51" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D51" t="s" s="2">
+      <c r="D51" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E51" t="s" s="2">
+      <c r="E51" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F51" t="s" s="2">
+      <c r="F51" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G51" t="s" s="2">
+      <c r="G51" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H51" t="s" s="2">
+      <c r="H51" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I51" t="s" s="2">
+      <c r="I51" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1688,10 +1700,10 @@
       <c r="I54">
         <f>((C54-C53)^2+(D54- D53)^2)^.5</f>
       </c>
-      <c r="J54" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K54" s="2" t="s">
+      <c r="J54" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K54" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L54" t="n">
@@ -1735,28 +1747,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="s" s="2">
+      <c r="A56" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B56" t="s" s="2">
+      <c r="B56" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C56" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D56" t="s" s="2">
+      <c r="C56" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D56" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E56" t="s" s="2">
+      <c r="E56" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F56" t="s" s="2">
+      <c r="F56" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G56" t="s" s="2">
+      <c r="G56" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H56" t="s" s="2">
+      <c r="H56" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1781,28 +1793,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="B58" t="s" s="2">
+      <c r="B58" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C58" t="s" s="2">
+      <c r="C58" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D58" t="s" s="2">
+      <c r="D58" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E58" t="s" s="2">
+      <c r="E58" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F58" t="s" s="2">
+      <c r="F58" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G58" t="s" s="2">
+      <c r="G58" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H58" t="s" s="2">
+      <c r="H58" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I58" t="s" s="2">
+      <c r="I58" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1919,10 +1931,10 @@
       <c r="I62">
         <f>((C62-C61)^2+(D62- D61)^2)^.5</f>
       </c>
-      <c r="J62" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K62" s="2" t="s">
+      <c r="J62" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K62" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L62" t="n">
@@ -1966,28 +1978,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="s" s="2">
+      <c r="A64" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B64" t="s" s="2">
+      <c r="B64" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C64" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D64" t="s" s="2">
+      <c r="C64" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D64" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E64" t="s" s="2">
+      <c r="E64" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F64" t="s" s="2">
+      <c r="F64" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G64" t="s" s="2">
+      <c r="G64" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H64" t="s" s="2">
+      <c r="H64" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2012,28 +2024,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="B66" t="s" s="2">
+      <c r="B66" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C66" t="s" s="2">
+      <c r="C66" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D66" t="s" s="2">
+      <c r="D66" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E66" t="s" s="2">
+      <c r="E66" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F66" t="s" s="2">
+      <c r="F66" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G66" t="s" s="2">
+      <c r="G66" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H66" t="s" s="2">
+      <c r="H66" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I66" t="s" s="2">
+      <c r="I66" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2121,10 +2133,10 @@
       <c r="I69">
         <f>((C69-C68)^2+(D69- D68)^2)^.5</f>
       </c>
-      <c r="J69" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K69" s="2" t="s">
+      <c r="J69" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K69" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L69" t="n">
@@ -2168,28 +2180,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s" s="2">
+      <c r="A71" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B71" t="s" s="2">
+      <c r="B71" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C71" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D71" t="s" s="2">
+      <c r="C71" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E71" t="s" s="2">
+      <c r="E71" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F71" t="s" s="2">
+      <c r="F71" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G71" t="s" s="2">
+      <c r="G71" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H71" t="s" s="2">
+      <c r="H71" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2214,28 +2226,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="B73" t="s" s="2">
+      <c r="B73" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C73" t="s" s="2">
+      <c r="C73" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D73" t="s" s="2">
+      <c r="D73" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E73" t="s" s="2">
+      <c r="E73" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F73" t="s" s="2">
+      <c r="F73" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G73" t="s" s="2">
+      <c r="G73" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H73" t="s" s="2">
+      <c r="H73" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I73" t="s" s="2">
+      <c r="I73" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2323,10 +2335,10 @@
       <c r="I76">
         <f>((C76-C75)^2+(D76- D75)^2)^.5</f>
       </c>
-      <c r="J76" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K76" s="2" t="s">
+      <c r="J76" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K76" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L76" t="n">
@@ -2370,28 +2382,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="s" s="2">
+      <c r="A78" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B78" t="s" s="2">
+      <c r="B78" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C78" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D78" t="s" s="2">
+      <c r="C78" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D78" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E78" t="s" s="2">
+      <c r="E78" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F78" t="s" s="2">
+      <c r="F78" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G78" t="s" s="2">
+      <c r="G78" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H78" t="s" s="2">
+      <c r="H78" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2416,28 +2428,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="B80" t="s" s="2">
+      <c r="B80" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C80" t="s" s="2">
+      <c r="C80" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D80" t="s" s="2">
+      <c r="D80" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E80" t="s" s="2">
+      <c r="E80" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F80" t="s" s="2">
+      <c r="F80" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G80" t="s" s="2">
+      <c r="G80" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H80" t="s" s="2">
+      <c r="H80" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I80" t="s" s="2">
+      <c r="I80" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2612,10 +2624,10 @@
       <c r="I86">
         <f>((C86-C85)^2+(D86- D85)^2)^.5</f>
       </c>
-      <c r="J86" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K86" s="2" t="s">
+      <c r="J86" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K86" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L86" t="n">
@@ -2659,28 +2671,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="s" s="2">
+      <c r="A88" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B88" t="s" s="2">
+      <c r="B88" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C88" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D88" t="s" s="2">
+      <c r="C88" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D88" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E88" t="s" s="2">
+      <c r="E88" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F88" t="s" s="2">
+      <c r="F88" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G88" t="s" s="2">
+      <c r="G88" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H88" t="s" s="2">
+      <c r="H88" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2705,28 +2717,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="B90" t="s" s="2">
+      <c r="B90" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C90" t="s" s="2">
+      <c r="C90" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D90" t="s" s="2">
+      <c r="D90" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E90" t="s" s="2">
+      <c r="E90" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F90" t="s" s="2">
+      <c r="F90" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G90" t="s" s="2">
+      <c r="G90" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H90" t="s" s="2">
+      <c r="H90" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I90" t="s" s="2">
+      <c r="I90" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2843,10 +2855,10 @@
       <c r="I94">
         <f>((C94-C93)^2+(D94- D93)^2)^.5</f>
       </c>
-      <c r="J94" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K94" s="2" t="s">
+      <c r="J94" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K94" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L94" t="n">
@@ -2890,28 +2902,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="s" s="2">
+      <c r="A96" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B96" t="s" s="2">
+      <c r="B96" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C96" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D96" t="s" s="2">
+      <c r="C96" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D96" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E96" t="s" s="2">
+      <c r="E96" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F96" t="s" s="2">
+      <c r="F96" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G96" t="s" s="2">
+      <c r="G96" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H96" t="s" s="2">
+      <c r="H96" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2936,28 +2948,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="B98" t="s" s="2">
+      <c r="B98" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C98" t="s" s="2">
+      <c r="C98" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D98" t="s" s="2">
+      <c r="D98" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E98" t="s" s="2">
+      <c r="E98" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F98" t="s" s="2">
+      <c r="F98" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G98" t="s" s="2">
+      <c r="G98" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H98" t="s" s="2">
+      <c r="H98" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I98" t="s" s="2">
+      <c r="I98" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3132,10 +3144,10 @@
       <c r="I104">
         <f>((C104-C103)^2+(D104- D103)^2)^.5</f>
       </c>
-      <c r="J104" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K104" s="2" t="s">
+      <c r="J104" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K104" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L104" t="n">
@@ -3179,28 +3191,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="s" s="2">
+      <c r="A106" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B106" t="s" s="2">
+      <c r="B106" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C106" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D106" t="s" s="2">
+      <c r="C106" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D106" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E106" t="s" s="2">
+      <c r="E106" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F106" t="s" s="2">
+      <c r="F106" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G106" t="s" s="2">
+      <c r="G106" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H106" t="s" s="2">
+      <c r="H106" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3225,28 +3237,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="B108" t="s" s="2">
+      <c r="B108" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C108" t="s" s="2">
+      <c r="C108" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D108" t="s" s="2">
+      <c r="D108" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E108" t="s" s="2">
+      <c r="E108" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F108" t="s" s="2">
+      <c r="F108" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G108" t="s" s="2">
+      <c r="G108" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H108" t="s" s="2">
+      <c r="H108" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I108" t="s" s="2">
+      <c r="I108" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3305,10 +3317,10 @@
       <c r="I110">
         <f>((C110-C109)^2+(D110- D109)^2)^.5</f>
       </c>
-      <c r="J110" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K110" s="2" t="s">
+      <c r="J110" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K110" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L110" t="n">
@@ -3352,28 +3364,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="s" s="2">
+      <c r="A112" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B112" t="s" s="2">
+      <c r="B112" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C112" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D112" t="s" s="2">
+      <c r="C112" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D112" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E112" t="s" s="2">
+      <c r="E112" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F112" t="s" s="2">
+      <c r="F112" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G112" t="s" s="2">
+      <c r="G112" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H112" t="s" s="2">
+      <c r="H112" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3398,28 +3410,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="B114" t="s" s="2">
+      <c r="B114" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C114" t="s" s="2">
+      <c r="C114" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D114" t="s" s="2">
+      <c r="D114" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E114" t="s" s="2">
+      <c r="E114" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F114" t="s" s="2">
+      <c r="F114" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G114" t="s" s="2">
+      <c r="G114" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H114" t="s" s="2">
+      <c r="H114" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I114" t="s" s="2">
+      <c r="I114" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3478,10 +3490,10 @@
       <c r="I116">
         <f>((C116-C115)^2+(D116- D115)^2)^.5</f>
       </c>
-      <c r="J116" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K116" s="2" t="s">
+      <c r="J116" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K116" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L116" t="n">
@@ -3525,28 +3537,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="s" s="2">
+      <c r="A118" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B118" t="s" s="2">
+      <c r="B118" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C118" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D118" t="s" s="2">
+      <c r="C118" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D118" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E118" t="s" s="2">
+      <c r="E118" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F118" t="s" s="2">
+      <c r="F118" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G118" t="s" s="2">
+      <c r="G118" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H118" t="s" s="2">
+      <c r="H118" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3571,28 +3583,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="B120" t="s" s="2">
+      <c r="B120" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C120" t="s" s="2">
+      <c r="C120" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D120" t="s" s="2">
+      <c r="D120" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E120" t="s" s="2">
+      <c r="E120" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F120" t="s" s="2">
+      <c r="F120" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G120" t="s" s="2">
+      <c r="G120" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H120" t="s" s="2">
+      <c r="H120" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I120" t="s" s="2">
+      <c r="I120" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3709,10 +3721,10 @@
       <c r="I124">
         <f>((C124-C123)^2+(D124- D123)^2)^.5</f>
       </c>
-      <c r="J124" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K124" s="2" t="s">
+      <c r="J124" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K124" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L124" t="n">
@@ -3756,28 +3768,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="s" s="2">
+      <c r="A126" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B126" t="s" s="2">
+      <c r="B126" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C126" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D126" t="s" s="2">
+      <c r="C126" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D126" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E126" t="s" s="2">
+      <c r="E126" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F126" t="s" s="2">
+      <c r="F126" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G126" t="s" s="2">
+      <c r="G126" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H126" t="s" s="2">
+      <c r="H126" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3802,28 +3814,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="B128" t="s" s="2">
+      <c r="B128" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C128" t="s" s="2">
+      <c r="C128" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D128" t="s" s="2">
+      <c r="D128" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E128" t="s" s="2">
+      <c r="E128" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F128" t="s" s="2">
+      <c r="F128" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G128" t="s" s="2">
+      <c r="G128" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H128" t="s" s="2">
+      <c r="H128" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I128" t="s" s="2">
+      <c r="I128" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4027,10 +4039,10 @@
       <c r="I135">
         <f>((C135-C134)^2+(D135- D134)^2)^.5</f>
       </c>
-      <c r="J135" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K135" s="2" t="s">
+      <c r="J135" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K135" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L135" t="n">
@@ -4074,28 +4086,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="s" s="2">
+      <c r="A137" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C137" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D137" t="s" s="2">
+      <c r="C137" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D137" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4120,28 +4132,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="B139" t="s" s="2">
+      <c r="B139" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C139" t="s" s="2">
+      <c r="C139" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D139" t="s" s="2">
+      <c r="D139" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E139" t="s" s="2">
+      <c r="E139" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F139" t="s" s="2">
+      <c r="F139" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G139" t="s" s="2">
+      <c r="G139" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H139" t="s" s="2">
+      <c r="H139" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I139" t="s" s="2">
+      <c r="I139" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4200,10 +4212,10 @@
       <c r="I141">
         <f>((C141-C140)^2+(D141- D140)^2)^.5</f>
       </c>
-      <c r="J141" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K141" s="2" t="s">
+      <c r="J141" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K141" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L141" t="n">
@@ -4247,28 +4259,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="s" s="2">
+      <c r="A143" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B143" t="s" s="2">
+      <c r="B143" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C143" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D143" t="s" s="2">
+      <c r="C143" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D143" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E143" t="s" s="2">
+      <c r="E143" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F143" t="s" s="2">
+      <c r="F143" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G143" t="s" s="2">
+      <c r="G143" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H143" t="s" s="2">
+      <c r="H143" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4293,28 +4305,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="B145" t="s" s="2">
+      <c r="B145" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C145" t="s" s="2">
+      <c r="C145" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D145" t="s" s="2">
+      <c r="D145" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E145" t="s" s="2">
+      <c r="E145" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F145" t="s" s="2">
+      <c r="F145" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G145" t="s" s="2">
+      <c r="G145" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H145" t="s" s="2">
+      <c r="H145" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I145" t="s" s="2">
+      <c r="I145" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4431,10 +4443,10 @@
       <c r="I149">
         <f>((C149-C148)^2+(D149- D148)^2)^.5</f>
       </c>
-      <c r="J149" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K149" s="2" t="s">
+      <c r="J149" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K149" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L149" t="n">
@@ -4478,28 +4490,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="s" s="2">
+      <c r="A151" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B151" t="s" s="2">
+      <c r="B151" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C151" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D151" t="s" s="2">
+      <c r="C151" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D151" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E151" t="s" s="2">
+      <c r="E151" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F151" t="s" s="2">
+      <c r="F151" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G151" t="s" s="2">
+      <c r="G151" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H151" t="s" s="2">
+      <c r="H151" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4524,28 +4536,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="B153" t="s" s="2">
+      <c r="B153" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C153" t="s" s="2">
+      <c r="C153" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D153" t="s" s="2">
+      <c r="D153" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E153" t="s" s="2">
+      <c r="E153" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F153" t="s" s="2">
+      <c r="F153" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G153" t="s" s="2">
+      <c r="G153" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H153" t="s" s="2">
+      <c r="H153" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I153" t="s" s="2">
+      <c r="I153" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4720,10 +4732,10 @@
       <c r="I159">
         <f>((C159-C158)^2+(D159- D158)^2)^.5</f>
       </c>
-      <c r="J159" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K159" s="2" t="s">
+      <c r="J159" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K159" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L159" t="n">
@@ -4767,28 +4779,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="s" s="2">
+      <c r="A161" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B161" t="s" s="2">
+      <c r="B161" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C161" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D161" t="s" s="2">
+      <c r="C161" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D161" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E161" t="s" s="2">
+      <c r="E161" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F161" t="s" s="2">
+      <c r="F161" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G161" t="s" s="2">
+      <c r="G161" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H161" t="s" s="2">
+      <c r="H161" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4813,28 +4825,28 @@
       </c>
     </row>
     <row r="163">
-      <c r="B163" t="s" s="2">
+      <c r="B163" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C163" t="s" s="2">
+      <c r="C163" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D163" t="s" s="2">
+      <c r="D163" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E163" t="s" s="2">
+      <c r="E163" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F163" t="s" s="2">
+      <c r="F163" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G163" t="s" s="2">
+      <c r="G163" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H163" t="s" s="2">
+      <c r="H163" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I163" t="s" s="2">
+      <c r="I163" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4893,10 +4905,10 @@
       <c r="I165">
         <f>((C165-C164)^2+(D165- D164)^2)^.5</f>
       </c>
-      <c r="J165" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K165" s="2" t="s">
+      <c r="J165" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K165" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L165" t="n">
@@ -4940,28 +4952,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="s" s="2">
+      <c r="A167" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B167" t="s" s="2">
+      <c r="B167" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C167" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D167" t="s" s="2">
+      <c r="C167" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D167" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E167" t="s" s="2">
+      <c r="E167" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F167" t="s" s="2">
+      <c r="F167" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G167" t="s" s="2">
+      <c r="G167" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H167" t="s" s="2">
+      <c r="H167" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4986,28 +4998,28 @@
       </c>
     </row>
     <row r="169">
-      <c r="B169" t="s" s="2">
+      <c r="B169" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C169" t="s" s="2">
+      <c r="C169" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D169" t="s" s="2">
+      <c r="D169" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E169" t="s" s="2">
+      <c r="E169" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F169" t="s" s="2">
+      <c r="F169" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G169" t="s" s="2">
+      <c r="G169" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H169" t="s" s="2">
+      <c r="H169" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I169" t="s" s="2">
+      <c r="I169" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5124,10 +5136,10 @@
       <c r="I173">
         <f>((C173-C172)^2+(D173- D172)^2)^.5</f>
       </c>
-      <c r="J173" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K173" s="2" t="s">
+      <c r="J173" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K173" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L173" t="n">
@@ -5171,28 +5183,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="s" s="2">
+      <c r="A175" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B175" t="s" s="2">
+      <c r="B175" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C175" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D175" t="s" s="2">
+      <c r="C175" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D175" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E175" t="s" s="2">
+      <c r="E175" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F175" t="s" s="2">
+      <c r="F175" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G175" t="s" s="2">
+      <c r="G175" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H175" t="s" s="2">
+      <c r="H175" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5217,28 +5229,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="B177" t="s" s="2">
+      <c r="B177" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C177" t="s" s="2">
+      <c r="C177" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D177" t="s" s="2">
+      <c r="D177" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E177" t="s" s="2">
+      <c r="E177" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F177" t="s" s="2">
+      <c r="F177" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G177" t="s" s="2">
+      <c r="G177" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H177" t="s" s="2">
+      <c r="H177" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I177" t="s" s="2">
+      <c r="I177" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5355,10 +5367,10 @@
       <c r="I181">
         <f>((C181-C180)^2+(D181- D180)^2)^.5</f>
       </c>
-      <c r="J181" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K181" s="2" t="s">
+      <c r="J181" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K181" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L181" t="n">
@@ -5402,28 +5414,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="s" s="2">
+      <c r="A183" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B183" t="s" s="2">
+      <c r="B183" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C183" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D183" t="s" s="2">
+      <c r="C183" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D183" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E183" t="s" s="2">
+      <c r="E183" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F183" t="s" s="2">
+      <c r="F183" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G183" t="s" s="2">
+      <c r="G183" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H183" t="s" s="2">
+      <c r="H183" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5448,28 +5460,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="B185" t="s" s="2">
+      <c r="B185" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C185" t="s" s="2">
+      <c r="C185" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D185" t="s" s="2">
+      <c r="D185" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E185" t="s" s="2">
+      <c r="E185" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F185" t="s" s="2">
+      <c r="F185" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G185" t="s" s="2">
+      <c r="G185" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H185" t="s" s="2">
+      <c r="H185" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I185" t="s" s="2">
+      <c r="I185" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5528,10 +5540,10 @@
       <c r="I187">
         <f>((C187-C186)^2+(D187- D186)^2)^.5</f>
       </c>
-      <c r="J187" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K187" s="2" t="s">
+      <c r="J187" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K187" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L187" t="n">
@@ -5575,28 +5587,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="s" s="2">
+      <c r="A189" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B189" t="s" s="2">
+      <c r="B189" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C189" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D189" t="s" s="2">
+      <c r="C189" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D189" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E189" t="s" s="2">
+      <c r="E189" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F189" t="s" s="2">
+      <c r="F189" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G189" t="s" s="2">
+      <c r="G189" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H189" t="s" s="2">
+      <c r="H189" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5621,28 +5633,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="B191" t="s" s="2">
+      <c r="B191" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C191" t="s" s="2">
+      <c r="C191" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D191" t="s" s="2">
+      <c r="D191" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E191" t="s" s="2">
+      <c r="E191" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F191" t="s" s="2">
+      <c r="F191" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G191" t="s" s="2">
+      <c r="G191" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H191" t="s" s="2">
+      <c r="H191" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I191" t="s" s="2">
+      <c r="I191" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5730,10 +5742,10 @@
       <c r="I194">
         <f>((C194-C193)^2+(D194- D193)^2)^.5</f>
       </c>
-      <c r="J194" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K194" s="2" t="s">
+      <c r="J194" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K194" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L194" t="n">
@@ -5777,28 +5789,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="s" s="2">
+      <c r="A196" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B196" t="s" s="2">
+      <c r="B196" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C196" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D196" t="s" s="2">
+      <c r="C196" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D196" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E196" t="s" s="2">
+      <c r="E196" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F196" t="s" s="2">
+      <c r="F196" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G196" t="s" s="2">
+      <c r="G196" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H196" t="s" s="2">
+      <c r="H196" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5823,28 +5835,28 @@
       </c>
     </row>
     <row r="198">
-      <c r="B198" t="s" s="2">
+      <c r="B198" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C198" t="s" s="2">
+      <c r="C198" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D198" t="s" s="2">
+      <c r="D198" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E198" t="s" s="2">
+      <c r="E198" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F198" t="s" s="2">
+      <c r="F198" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G198" t="s" s="2">
+      <c r="G198" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H198" t="s" s="2">
+      <c r="H198" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I198" t="s" s="2">
+      <c r="I198" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5903,10 +5915,10 @@
       <c r="I200">
         <f>((C200-C199)^2+(D200- D199)^2)^.5</f>
       </c>
-      <c r="J200" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K200" s="2" t="s">
+      <c r="J200" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K200" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L200" t="n">
@@ -5950,28 +5962,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="s" s="2">
+      <c r="A202" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B202" t="s" s="2">
+      <c r="B202" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C202" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D202" t="s" s="2">
+      <c r="C202" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D202" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E202" t="s" s="2">
+      <c r="E202" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F202" t="s" s="2">
+      <c r="F202" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G202" t="s" s="2">
+      <c r="G202" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H202" t="s" s="2">
+      <c r="H202" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5996,28 +6008,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="B204" t="s" s="2">
+      <c r="B204" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C204" t="s" s="2">
+      <c r="C204" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D204" t="s" s="2">
+      <c r="D204" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E204" t="s" s="2">
+      <c r="E204" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F204" t="s" s="2">
+      <c r="F204" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G204" t="s" s="2">
+      <c r="G204" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H204" t="s" s="2">
+      <c r="H204" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I204" t="s" s="2">
+      <c r="I204" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6105,10 +6117,10 @@
       <c r="I207">
         <f>((C207-C206)^2+(D207- D206)^2)^.5</f>
       </c>
-      <c r="J207" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K207" s="2" t="s">
+      <c r="J207" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K207" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L207" t="n">
@@ -6152,28 +6164,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="s" s="2">
+      <c r="A209" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B209" t="s" s="2">
+      <c r="B209" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C209" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D209" t="s" s="2">
+      <c r="C209" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D209" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E209" t="s" s="2">
+      <c r="E209" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F209" t="s" s="2">
+      <c r="F209" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G209" t="s" s="2">
+      <c r="G209" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H209" t="s" s="2">
+      <c r="H209" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6198,28 +6210,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="B211" t="s" s="2">
+      <c r="B211" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C211" t="s" s="2">
+      <c r="C211" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D211" t="s" s="2">
+      <c r="D211" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E211" t="s" s="2">
+      <c r="E211" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F211" t="s" s="2">
+      <c r="F211" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G211" t="s" s="2">
+      <c r="G211" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H211" t="s" s="2">
+      <c r="H211" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I211" t="s" s="2">
+      <c r="I211" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6307,10 +6319,10 @@
       <c r="I214">
         <f>((C214-C213)^2+(D214- D213)^2)^.5</f>
       </c>
-      <c r="J214" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K214" s="2" t="s">
+      <c r="J214" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K214" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L214" t="n">
@@ -6354,28 +6366,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="s" s="2">
+      <c r="A216" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B216" t="s" s="2">
+      <c r="B216" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C216" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D216" t="s" s="2">
+      <c r="C216" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D216" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E216" t="s" s="2">
+      <c r="E216" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F216" t="s" s="2">
+      <c r="F216" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G216" t="s" s="2">
+      <c r="G216" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H216" t="s" s="2">
+      <c r="H216" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6400,28 +6412,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="B218" t="s" s="2">
+      <c r="B218" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C218" t="s" s="2">
+      <c r="C218" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D218" t="s" s="2">
+      <c r="D218" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E218" t="s" s="2">
+      <c r="E218" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F218" t="s" s="2">
+      <c r="F218" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G218" t="s" s="2">
+      <c r="G218" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H218" t="s" s="2">
+      <c r="H218" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I218" t="s" s="2">
+      <c r="I218" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6567,10 +6579,10 @@
       <c r="I223">
         <f>((C223-C222)^2+(D223- D222)^2)^.5</f>
       </c>
-      <c r="J223" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K223" s="2" t="s">
+      <c r="J223" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K223" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L223" t="n">
@@ -6614,28 +6626,28 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="s" s="2">
+      <c r="A225" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B225" t="s" s="2">
+      <c r="B225" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C225" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D225" t="s" s="2">
+      <c r="C225" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D225" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E225" t="s" s="2">
+      <c r="E225" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F225" t="s" s="2">
+      <c r="F225" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G225" t="s" s="2">
+      <c r="G225" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H225" t="s" s="2">
+      <c r="H225" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6660,28 +6672,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="B227" t="s" s="2">
+      <c r="B227" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C227" t="s" s="2">
+      <c r="C227" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D227" t="s" s="2">
+      <c r="D227" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E227" t="s" s="2">
+      <c r="E227" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F227" t="s" s="2">
+      <c r="F227" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G227" t="s" s="2">
+      <c r="G227" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H227" t="s" s="2">
+      <c r="H227" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I227" t="s" s="2">
+      <c r="I227" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6885,10 +6897,10 @@
       <c r="I234">
         <f>((C234-C233)^2+(D234- D233)^2)^.5</f>
       </c>
-      <c r="J234" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K234" s="2" t="s">
+      <c r="J234" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K234" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L234" t="n">
@@ -6932,28 +6944,28 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="s" s="2">
+      <c r="A236" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B236" t="s" s="2">
+      <c r="B236" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C236" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D236" t="s" s="2">
+      <c r="C236" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D236" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E236" t="s" s="2">
+      <c r="E236" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F236" t="s" s="2">
+      <c r="F236" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G236" t="s" s="2">
+      <c r="G236" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H236" t="s" s="2">
+      <c r="H236" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6978,28 +6990,28 @@
       </c>
     </row>
     <row r="238">
-      <c r="B238" t="s" s="2">
+      <c r="B238" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C238" t="s" s="2">
+      <c r="C238" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D238" t="s" s="2">
+      <c r="D238" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E238" t="s" s="2">
+      <c r="E238" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F238" t="s" s="2">
+      <c r="F238" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G238" t="s" s="2">
+      <c r="G238" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H238" t="s" s="2">
+      <c r="H238" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I238" t="s" s="2">
+      <c r="I238" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7058,10 +7070,10 @@
       <c r="I240">
         <f>((C240-C239)^2+(D240- D239)^2)^.5</f>
       </c>
-      <c r="J240" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K240" s="2" t="s">
+      <c r="J240" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K240" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L240" t="n">
@@ -7105,28 +7117,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="s" s="2">
+      <c r="A242" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B242" t="s" s="2">
+      <c r="B242" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C242" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D242" t="s" s="2">
+      <c r="C242" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D242" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E242" t="s" s="2">
+      <c r="E242" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F242" t="s" s="2">
+      <c r="F242" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G242" t="s" s="2">
+      <c r="G242" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H242" t="s" s="2">
+      <c r="H242" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7151,28 +7163,28 @@
       </c>
     </row>
     <row r="244">
-      <c r="B244" t="s" s="2">
+      <c r="B244" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C244" t="s" s="2">
+      <c r="C244" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D244" t="s" s="2">
+      <c r="D244" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E244" t="s" s="2">
+      <c r="E244" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F244" t="s" s="2">
+      <c r="F244" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G244" t="s" s="2">
+      <c r="G244" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H244" t="s" s="2">
+      <c r="H244" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I244" t="s" s="2">
+      <c r="I244" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7260,10 +7272,10 @@
       <c r="I247">
         <f>((C247-C246)^2+(D247- D246)^2)^.5</f>
       </c>
-      <c r="J247" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K247" s="2" t="s">
+      <c r="J247" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K247" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L247" t="n">
@@ -7307,28 +7319,28 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="s" s="2">
+      <c r="A249" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B249" t="s" s="2">
+      <c r="B249" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C249" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D249" t="s" s="2">
+      <c r="C249" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D249" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E249" t="s" s="2">
+      <c r="E249" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F249" t="s" s="2">
+      <c r="F249" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G249" t="s" s="2">
+      <c r="G249" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H249" t="s" s="2">
+      <c r="H249" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7353,28 +7365,28 @@
       </c>
     </row>
     <row r="251">
-      <c r="B251" t="s" s="2">
+      <c r="B251" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C251" t="s" s="2">
+      <c r="C251" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D251" t="s" s="2">
+      <c r="D251" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E251" t="s" s="2">
+      <c r="E251" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F251" t="s" s="2">
+      <c r="F251" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G251" t="s" s="2">
+      <c r="G251" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H251" t="s" s="2">
+      <c r="H251" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I251" t="s" s="2">
+      <c r="I251" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7723,10 +7735,10 @@
       <c r="I263">
         <f>((C263-C262)^2+(D263- D262)^2)^.5</f>
       </c>
-      <c r="J263" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K263" s="2" t="s">
+      <c r="J263" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K263" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L263" t="n">
@@ -7770,28 +7782,28 @@
       </c>
     </row>
     <row r="265">
-      <c r="A265" t="s" s="2">
+      <c r="A265" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B265" t="s" s="2">
+      <c r="B265" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C265" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D265" t="s" s="2">
+      <c r="C265" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D265" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E265" t="s" s="2">
+      <c r="E265" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F265" t="s" s="2">
+      <c r="F265" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G265" t="s" s="2">
+      <c r="G265" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H265" t="s" s="2">
+      <c r="H265" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7816,28 +7828,28 @@
       </c>
     </row>
     <row r="267">
-      <c r="B267" t="s" s="2">
+      <c r="B267" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C267" t="s" s="2">
+      <c r="C267" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D267" t="s" s="2">
+      <c r="D267" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E267" t="s" s="2">
+      <c r="E267" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F267" t="s" s="2">
+      <c r="F267" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G267" t="s" s="2">
+      <c r="G267" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H267" t="s" s="2">
+      <c r="H267" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I267" t="s" s="2">
+      <c r="I267" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7925,10 +7937,10 @@
       <c r="I270">
         <f>((C270-C269)^2+(D270- D269)^2)^.5</f>
       </c>
-      <c r="J270" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K270" s="2" t="s">
+      <c r="J270" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K270" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L270" t="n">
@@ -7972,28 +7984,28 @@
       </c>
     </row>
     <row r="272">
-      <c r="A272" t="s" s="2">
+      <c r="A272" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B272" t="s" s="2">
+      <c r="B272" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C272" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D272" t="s" s="2">
+      <c r="C272" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D272" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E272" t="s" s="2">
+      <c r="E272" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F272" t="s" s="2">
+      <c r="F272" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G272" t="s" s="2">
+      <c r="G272" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H272" t="s" s="2">
+      <c r="H272" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8018,28 +8030,28 @@
       </c>
     </row>
     <row r="274">
-      <c r="B274" t="s" s="2">
+      <c r="B274" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C274" t="s" s="2">
+      <c r="C274" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D274" t="s" s="2">
+      <c r="D274" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E274" t="s" s="2">
+      <c r="E274" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F274" t="s" s="2">
+      <c r="F274" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G274" t="s" s="2">
+      <c r="G274" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H274" t="s" s="2">
+      <c r="H274" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I274" t="s" s="2">
+      <c r="I274" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8214,10 +8226,10 @@
       <c r="I280">
         <f>((C280-C279)^2+(D280- D279)^2)^.5</f>
       </c>
-      <c r="J280" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K280" s="2" t="s">
+      <c r="J280" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K280" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L280" t="n">
@@ -8261,28 +8273,28 @@
       </c>
     </row>
     <row r="282">
-      <c r="A282" t="s" s="2">
+      <c r="A282" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B282" t="s" s="2">
+      <c r="B282" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C282" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D282" t="s" s="2">
+      <c r="C282" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D282" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E282" t="s" s="2">
+      <c r="E282" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F282" t="s" s="2">
+      <c r="F282" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G282" t="s" s="2">
+      <c r="G282" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H282" t="s" s="2">
+      <c r="H282" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8307,28 +8319,28 @@
       </c>
     </row>
     <row r="284">
-      <c r="B284" t="s" s="2">
+      <c r="B284" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C284" t="s" s="2">
+      <c r="C284" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D284" t="s" s="2">
+      <c r="D284" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E284" t="s" s="2">
+      <c r="E284" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F284" t="s" s="2">
+      <c r="F284" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G284" t="s" s="2">
+      <c r="G284" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H284" t="s" s="2">
+      <c r="H284" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I284" t="s" s="2">
+      <c r="I284" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8387,10 +8399,10 @@
       <c r="I286">
         <f>((C286-C285)^2+(D286- D285)^2)^.5</f>
       </c>
-      <c r="J286" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K286" s="2" t="s">
+      <c r="J286" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K286" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L286" t="n">
